--- a/biology/Zoologie/Akodon_polopi/Akodon_polopi.xlsx
+++ b/biology/Zoologie/Akodon_polopi/Akodon_polopi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Akodon polopi est une espèce de rongeurs de la famille des Cricetidae endémique d'Argentine. 
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Akodon polopi a été décrite en 2010 par J. Pablo Jayat (d), Pablo E. Ortiz (d), Jorge Salazar-Bravo (d), Ulyses F. J. Pardiñas (d) et D'Elía (d)[2].
-Cette espèce est un synonyme d’Akodon viridescens, décrit par Janet K. Braun (d) et son équipe la même année[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Akodon polopi a été décrite en 2010 par J. Pablo Jayat (d), Pablo E. Ortiz (d), Jorge Salazar-Bravo (d), Ulyses F. J. Pardiñas (d) et D'Elía (d).
+Cette espèce est un synonyme d’Akodon viridescens, décrit par Janet K. Braun (d) et son équipe la même année,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, polopi, lui a été donnée en l'honneur de Jaime José Polop de l'université nationale de Río Cuarto (d) (Córdoba, Argentine) en remerciement de sa contribution à la connaissance de l'écologie des rongeurs du centre de l'Argentine. Par ailleurs, Polop a collecté nombre de spécimens utilisés pour la description de cette nouvelle espèce[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, polopi, lui a été donnée en l'honneur de Jaime José Polop de l'université nationale de Río Cuarto (d) (Córdoba, Argentine) en remerciement de sa contribution à la connaissance de l'écologie des rongeurs du centre de l'Argentine. Par ailleurs, Polop a collecté nombre de spécimens utilisés pour la description de cette nouvelle espèce.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) J. Pablo Jayat, Pablo E. Ortiz, Jorge Salazar-Bravo, Ulyses F. J. Pardiñas et Guillermo D'Elía, « The Akodon boliviensis species group (Rodentia: Cricetidae: Sigmodontinae) in Argentina: species limits and distribution, with the description of a new entity », Zootaxa, Magnolia Press (d), vol. 2409, no 1,‎ 24 mars 2010, p. 1 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.2409.1.1, lire en ligne)</t>
         </is>
